--- a/data/trans_orig/P1414-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{303848D9-D6F1-4E82-8023-72639C3A2A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02073F5B-7CFB-4C5B-89B8-F41409C033B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{872C86CF-47CC-49CA-8384-DBDD4F587D70}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{803E7C62-41D2-4B67-B9A1-B78793F4E8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="288">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -397,52 +397,46 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,31%</t>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>99,51%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>98,69%</t>
+    <t>99,03%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
     <t>0,51%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,41%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>98,53%</t>
+    <t>98,59%</t>
   </si>
   <si>
     <t>99,84%</t>
@@ -451,10 +445,10 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -463,469 +457,451 @@
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D3378F-AC87-4F59-8E4D-8D640848F811}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE98882-6D1E-4A74-A906-B0C284A76DB3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2556,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7359A8-9767-45BF-9309-7888CA346412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2332A8-8C2A-4E2F-8C85-59B3F106CEAA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2716,7 +2692,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2710,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2746,10 +2722,10 @@
         <v>394802</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2761,10 +2737,10 @@
         <v>814265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2835,13 +2811,13 @@
         <v>3005</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2850,13 +2826,13 @@
         <v>2934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2865,13 +2841,13 @@
         <v>5939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2862,13 @@
         <v>587491</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>576</v>
@@ -2901,13 +2877,13 @@
         <v>560610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>1140</v>
@@ -2916,10 +2892,10 @@
         <v>1148101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>33</v>
@@ -2996,7 +2972,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3005,13 +2981,13 @@
         <v>7961</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3020,13 +2996,13 @@
         <v>7961</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3020,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3056,13 +3032,13 @@
         <v>653425</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>1295</v>
@@ -3071,13 +3047,13 @@
         <v>1322522</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3121,13 @@
         <v>4112</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3160,13 +3136,13 @@
         <v>37133</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3175,13 +3151,13 @@
         <v>41246</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,10 +3172,10 @@
         <v>641936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>33</v>
@@ -3211,28 +3187,28 @@
         <v>611944</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>1146</v>
       </c>
       <c r="N14" s="7">
-        <v>1253879</v>
+        <v>1253880</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3250,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3300,13 +3276,13 @@
         <v>4279</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -3315,13 +3291,13 @@
         <v>43732</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3330,13 +3306,13 @@
         <v>48011</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3327,13 @@
         <v>473639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>393</v>
@@ -3366,13 +3342,13 @@
         <v>453117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>813</v>
@@ -3381,13 +3357,13 @@
         <v>926756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3470,13 +3446,13 @@
         <v>32355</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -3488,10 +3464,10 @@
         <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3485,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -3521,13 +3497,13 @@
         <v>745576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M20" s="7">
         <v>1251</v>
@@ -3539,10 +3515,10 @@
         <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3586,13 @@
         <v>14048</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -3625,13 +3601,13 @@
         <v>125068</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -3640,13 +3616,13 @@
         <v>139116</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3637,13 @@
         <v>3380302</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H23" s="7">
         <v>3223</v>
@@ -3676,13 +3652,13 @@
         <v>3419474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7">
         <v>6441</v>
@@ -3691,13 +3667,13 @@
         <v>6799776</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6915E4-735B-4F8C-9091-2A04D63D3841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8E2AC-BE76-4B30-AE2C-8B7E7DF80BDB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3792,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3905,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3920,7 +3896,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3929,13 +3905,13 @@
         <v>2243</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,7 +3929,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3968,7 +3944,7 @@
         <v>49</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3980,10 +3956,10 @@
         <v>730393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4054,13 +4030,13 @@
         <v>1381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4075,7 +4051,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4084,13 +4060,13 @@
         <v>2561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,10 +4081,10 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4120,10 +4096,10 @@
         <v>496749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4135,13 +4111,13 @@
         <v>923763</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,7 +4191,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4224,13 +4200,13 @@
         <v>11540</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4239,13 +4215,13 @@
         <v>11540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,7 +4239,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4275,13 +4251,13 @@
         <v>570233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>1371</v>
@@ -4290,13 +4266,13 @@
         <v>1126170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4340,13 @@
         <v>5263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -4379,13 +4355,13 @@
         <v>29209</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -4394,13 +4370,13 @@
         <v>34472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4391,13 @@
         <v>717624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>1085</v>
@@ -4430,13 +4406,13 @@
         <v>714257</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>1745</v>
@@ -4445,13 +4421,13 @@
         <v>1431881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,7 +4501,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -4534,13 +4510,13 @@
         <v>50122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -4549,13 +4525,13 @@
         <v>54691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,7 +4549,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -4585,13 +4561,13 @@
         <v>539668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>1567</v>
@@ -4600,13 +4576,13 @@
         <v>1133612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4650,13 @@
         <v>3617</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -4689,13 +4665,13 @@
         <v>60288</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -4704,13 +4680,13 @@
         <v>63905</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4701,13 @@
         <v>690867</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>1594</v>
@@ -4740,13 +4716,13 @@
         <v>961928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>2612</v>
@@ -4755,13 +4731,13 @@
         <v>1652795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4805,13 @@
         <v>14831</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>256</v>
@@ -4844,13 +4820,13 @@
         <v>154582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>272</v>
@@ -4859,13 +4835,13 @@
         <v>169413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4856,13 @@
         <v>3363065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>5079</v>
@@ -4895,13 +4871,13 @@
         <v>3635548</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="M23" s="7">
         <v>8431</v>
@@ -4910,13 +4886,13 @@
         <v>6998612</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1414-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02073F5B-7CFB-4C5B-89B8-F41409C033B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46ABE3E6-1305-41C7-A29C-7058B9878DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{803E7C62-41D2-4B67-B9A1-B78793F4E8F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD7ED8AA-CE25-48EB-9C7B-590DA3696914}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -118,7 +118,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>1,88%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -127,729 +127,735 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
     <t>96,28%</t>
   </si>
   <si>
@@ -874,9 +880,6 @@
     <t>2,36%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
     <t>2,7%</t>
   </si>
   <si>
@@ -899,9 +902,6 @@
   </si>
   <si>
     <t>97,3%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE98882-6D1E-4A74-A906-B0C284A76DB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFA4520-4E76-456C-BC28-FF125B3A4AD3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2248,7 +2248,7 @@
         <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2263,13 @@
         <v>556417</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>674</v>
@@ -2278,13 +2278,13 @@
         <v>722192</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>1175</v>
@@ -2293,13 +2293,13 @@
         <v>1278610</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2370,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -2382,13 +2382,13 @@
         <v>92791</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -2397,13 +2397,13 @@
         <v>100175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,7 +2424,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>3209</v>
@@ -2433,13 +2433,13 @@
         <v>3461341</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>6411</v>
@@ -2448,13 +2448,13 @@
         <v>6880735</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,7 +2510,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2332A8-8C2A-4E2F-8C85-59B3F106CEAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71A7C80-A43C-4397-B1BD-3B31AB8F093A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2549,7 +2549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2662,7 +2662,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2671,13 +2671,13 @@
         <v>953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2686,13 +2686,13 @@
         <v>953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2710,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2722,10 +2722,10 @@
         <v>394802</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2737,10 +2737,10 @@
         <v>814265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2811,13 +2811,13 @@
         <v>3005</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2826,13 +2826,13 @@
         <v>2934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2841,13 +2841,13 @@
         <v>5939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2862,13 @@
         <v>587491</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>576</v>
@@ -2877,13 +2877,13 @@
         <v>560610</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
         <v>1140</v>
@@ -2892,13 +2892,13 @@
         <v>1148101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,7 +3002,7 @@
         <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3020,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3032,13 +3032,13 @@
         <v>653425</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>1295</v>
@@ -3047,13 +3047,13 @@
         <v>1322522</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3121,13 @@
         <v>4112</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3136,13 +3136,13 @@
         <v>37133</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3151,13 +3151,13 @@
         <v>41246</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3172,13 @@
         <v>641936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="H14" s="7">
         <v>568</v>
@@ -3187,28 +3187,28 @@
         <v>611944</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M14" s="7">
         <v>1146</v>
       </c>
       <c r="N14" s="7">
-        <v>1253880</v>
+        <v>1253879</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,7 +3250,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3276,13 +3276,13 @@
         <v>4279</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -3291,13 +3291,13 @@
         <v>43732</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3306,13 +3306,13 @@
         <v>48011</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,10 +3327,10 @@
         <v>473639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3342,13 +3342,13 @@
         <v>453117</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>813</v>
@@ -3357,13 +3357,13 @@
         <v>926756</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3446,13 +3446,13 @@
         <v>32355</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -3461,13 +3461,13 @@
         <v>35006</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,7 +3485,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -3497,13 +3497,13 @@
         <v>745576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>1251</v>
@@ -3512,13 +3512,13 @@
         <v>1334253</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3586,13 @@
         <v>14048</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -3601,13 +3601,13 @@
         <v>125068</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -3616,13 +3616,13 @@
         <v>139116</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3637,13 @@
         <v>3380302</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
         <v>3223</v>
@@ -3652,13 +3652,13 @@
         <v>3419474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M23" s="7">
         <v>6441</v>
@@ -3667,13 +3667,13 @@
         <v>6799776</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8E2AC-BE76-4B30-AE2C-8B7E7DF80BDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38B92E3-1426-4580-B309-AED6621E51DB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3768,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3881,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3896,7 +3896,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3905,13 +3905,13 @@
         <v>2243</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,7 +3929,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3944,7 +3944,7 @@
         <v>49</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3956,10 +3956,10 @@
         <v>730393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4030,13 +4030,13 @@
         <v>1381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4045,13 +4045,13 @@
         <v>1179</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4060,13 +4060,13 @@
         <v>2561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,10 +4081,10 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4096,10 +4096,10 @@
         <v>496749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4111,13 +4111,13 @@
         <v>923763</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,7 +4191,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4200,13 +4200,13 @@
         <v>11540</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4215,13 +4215,13 @@
         <v>11540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,7 +4239,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4251,13 +4251,13 @@
         <v>570233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>1371</v>
@@ -4266,13 +4266,13 @@
         <v>1126170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4340,13 @@
         <v>5263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -4355,13 +4355,13 @@
         <v>29209</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -4370,13 +4370,13 @@
         <v>34472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4391,13 @@
         <v>717624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>1085</v>
@@ -4406,13 +4406,13 @@
         <v>714257</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1745</v>
@@ -4421,13 +4421,13 @@
         <v>1431881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,7 +4501,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -4510,13 +4510,13 @@
         <v>50122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -4525,13 +4525,13 @@
         <v>54691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,7 +4549,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -4650,13 +4650,13 @@
         <v>3617</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -4668,10 +4668,10 @@
         <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -4680,13 +4680,13 @@
         <v>63905</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4701,13 @@
         <v>690867</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>1594</v>
@@ -4716,13 +4716,13 @@
         <v>961928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>2612</v>
@@ -4731,13 +4731,13 @@
         <v>1652795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4805,13 @@
         <v>14831</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>256</v>
@@ -4820,13 +4820,13 @@
         <v>154582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>272</v>
@@ -4835,13 +4835,13 @@
         <v>169413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4856,13 @@
         <v>3363065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>5079</v>
@@ -4871,13 +4871,13 @@
         <v>3635548</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7">
         <v>8431</v>
@@ -4886,13 +4886,13 @@
         <v>6998612</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4948,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1414-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46ABE3E6-1305-41C7-A29C-7058B9878DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{957DA5CD-DD0F-4571-AA21-71BA39D37D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD7ED8AA-CE25-48EB-9C7B-590DA3696914}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3961BE09-A658-4B0B-BD93-0EFAFC118CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="296">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -118,7 +118,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,88%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -127,781 +127,805 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>91,5%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>94,1%</t>
   </si>
   <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>95,49%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFA4520-4E76-456C-BC28-FF125B3A4AD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28614EB9-BA1D-4952-8F43-20417D91035F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2248,7 +2272,7 @@
         <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2287,13 @@
         <v>556417</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>674</v>
@@ -2278,13 +2302,13 @@
         <v>722192</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>1175</v>
@@ -2293,13 +2317,13 @@
         <v>1278610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2394,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -2382,13 +2406,13 @@
         <v>92791</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -2397,13 +2421,13 @@
         <v>100175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,7 +2448,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>3209</v>
@@ -2433,13 +2457,13 @@
         <v>3461341</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>6411</v>
@@ -2448,13 +2472,13 @@
         <v>6880735</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,7 +2534,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71A7C80-A43C-4397-B1BD-3B31AB8F093A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3421D9A2-A0F9-40D0-8089-B5580E7D521D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2549,7 +2573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2662,7 +2686,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2671,13 +2695,13 @@
         <v>953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2686,13 +2710,13 @@
         <v>953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2734,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2722,10 +2746,10 @@
         <v>394802</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2737,10 +2761,10 @@
         <v>814265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2811,13 +2835,13 @@
         <v>3005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2826,13 +2850,13 @@
         <v>2934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2841,13 +2865,13 @@
         <v>5939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2886,13 @@
         <v>587491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>576</v>
@@ -2877,13 +2901,13 @@
         <v>560610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>1140</v>
@@ -2892,13 +2916,13 @@
         <v>1148101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2981,13 +3005,13 @@
         <v>7961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2996,13 +3020,13 @@
         <v>7961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3044,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3032,13 +3056,13 @@
         <v>653425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>1295</v>
@@ -3047,13 +3071,13 @@
         <v>1322522</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3145,13 @@
         <v>4112</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3136,13 +3160,13 @@
         <v>37133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3151,13 +3175,13 @@
         <v>41246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3196,13 @@
         <v>641936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7">
         <v>568</v>
@@ -3187,13 +3211,13 @@
         <v>611944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>1146</v>
@@ -3202,13 +3226,13 @@
         <v>1253879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3300,13 @@
         <v>4279</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -3291,13 +3315,13 @@
         <v>43732</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3306,13 +3330,13 @@
         <v>48011</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3351,13 @@
         <v>473639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
         <v>393</v>
@@ -3342,13 +3366,13 @@
         <v>453117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>813</v>
@@ -3357,13 +3381,13 @@
         <v>926756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,7 +3461,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3446,13 +3470,13 @@
         <v>32355</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -3461,13 +3485,13 @@
         <v>35006</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,7 +3509,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -3497,13 +3521,13 @@
         <v>745576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7">
         <v>1251</v>
@@ -3512,13 +3536,13 @@
         <v>1334253</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3610,13 @@
         <v>14048</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -3601,13 +3625,13 @@
         <v>125068</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -3616,13 +3640,13 @@
         <v>139116</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3661,13 @@
         <v>3380302</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="H23" s="7">
         <v>3223</v>
@@ -3652,13 +3676,13 @@
         <v>3419474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>6441</v>
@@ -3667,13 +3691,13 @@
         <v>6799776</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3753,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38B92E3-1426-4580-B309-AED6621E51DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3183F53-86BE-4149-A221-218B15408862}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3768,7 +3792,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3881,7 +3905,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3896,7 +3920,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3905,13 +3929,13 @@
         <v>2243</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,7 +3953,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3944,7 +3968,7 @@
         <v>49</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3956,10 +3980,10 @@
         <v>730393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4030,13 +4054,13 @@
         <v>1381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4045,13 +4069,13 @@
         <v>1179</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4060,13 +4084,13 @@
         <v>2561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,10 +4105,10 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4096,10 +4120,10 @@
         <v>496749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4111,13 +4135,13 @@
         <v>923763</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4200,13 +4224,13 @@
         <v>11540</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4215,13 +4239,13 @@
         <v>11540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,7 +4263,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4251,13 +4275,13 @@
         <v>570233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>1371</v>
@@ -4266,13 +4290,13 @@
         <v>1126170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4364,13 @@
         <v>5263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -4355,13 +4379,13 @@
         <v>29209</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -4370,13 +4394,13 @@
         <v>34472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4415,13 @@
         <v>717624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7">
         <v>1085</v>
@@ -4406,13 +4430,13 @@
         <v>714257</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>1745</v>
@@ -4421,13 +4445,13 @@
         <v>1431881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>110</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4534,13 @@
         <v>50122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -4525,13 +4549,13 @@
         <v>54691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4585,13 @@
         <v>539668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>1567</v>
@@ -4576,13 +4600,13 @@
         <v>1133612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4674,13 @@
         <v>3617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -4665,13 +4689,13 @@
         <v>60288</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -4680,13 +4704,13 @@
         <v>63905</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4725,13 @@
         <v>690867</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>1594</v>
@@ -4716,13 +4740,13 @@
         <v>961928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>2612</v>
@@ -4731,13 +4755,13 @@
         <v>1652795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4829,13 @@
         <v>14831</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>275</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>256</v>
@@ -4820,13 +4844,13 @@
         <v>154582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>272</v>
@@ -4835,13 +4859,13 @@
         <v>169413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4880,13 @@
         <v>3363065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>5079</v>
@@ -4871,13 +4895,13 @@
         <v>3635548</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>8431</v>
@@ -4886,13 +4910,13 @@
         <v>6998612</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4972,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1414-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{957DA5CD-DD0F-4571-AA21-71BA39D37D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40F77F19-789A-4D95-8B89-2E103249579A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3961BE09-A658-4B0B-BD93-0EFAFC118CD0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D1CE166F-9A7D-4173-BEDE-48DB93486DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="329">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -151,7 +151,7 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,11%</t>
@@ -190,7 +190,7 @@
     <t>99,37%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -241,7 +241,7 @@
     <t>98,54%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -292,640 +292,739 @@
     <t>97,68%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>94,1%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
 </sst>
 </file>
@@ -1337,8 +1436,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28614EB9-BA1D-4952-8F43-20417D91035F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6643E2A7-10E2-4E48-A559-C76176EF409E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2230,49 +2329,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>3220</v>
+        <v>2169</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>11</v>
+      </c>
+      <c r="I19" s="7">
+        <v>10876</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="7">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19816</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>13</v>
+      </c>
+      <c r="N19" s="7">
+        <v>13045</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M19" s="7">
-        <v>22</v>
-      </c>
-      <c r="N19" s="7">
-        <v>23036</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,49 +2380,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>501</v>
+        <v>280</v>
       </c>
       <c r="D20" s="7">
-        <v>556417</v>
+        <v>307617</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="7">
+        <v>332</v>
+      </c>
+      <c r="I20" s="7">
+        <v>342153</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="7">
-        <v>674</v>
-      </c>
-      <c r="I20" s="7">
-        <v>722192</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>612</v>
+      </c>
+      <c r="N20" s="7">
+        <v>649771</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="7">
-        <v>1175</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1278610</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,10 +2431,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2347,10 +2446,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>742008</v>
+        <v>353029</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2362,10 +2461,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1301646</v>
+        <v>662816</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2379,31 +2478,31 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>7384</v>
+        <v>1051</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H22" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>92791</v>
+        <v>8941</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>104</v>
@@ -2415,16 +2514,16 @@
         <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="N22" s="7">
-        <v>100175</v>
+        <v>9991</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>108</v>
@@ -2436,49 +2535,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3202</v>
+        <v>221</v>
       </c>
       <c r="D23" s="7">
-        <v>3419395</v>
+        <v>248800</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
-        <v>3209</v>
+        <v>342</v>
       </c>
       <c r="I23" s="7">
-        <v>3461341</v>
+        <v>380038</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
-        <v>6411</v>
+        <v>563</v>
       </c>
       <c r="N23" s="7">
-        <v>6880735</v>
+        <v>628839</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,63 +2586,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7384</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
+        <v>86</v>
+      </c>
+      <c r="I25" s="7">
+        <v>92791</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M25" s="7">
+        <v>93</v>
+      </c>
+      <c r="N25" s="7">
+        <v>100175</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3419395</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I26" s="7">
+        <v>3461341</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6411</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6880736</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3554132</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
-        <v>6980910</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>115</v>
+      <c r="N27" s="7">
+        <v>6980911</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2556,8 +2811,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3421D9A2-A0F9-40D0-8089-B5580E7D521D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E150541-D9EB-4BCE-B078-7832962EAC66}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2573,7 +2828,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2686,7 +2941,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2695,13 +2950,13 @@
         <v>953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2710,13 +2965,13 @@
         <v>953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2989,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2746,10 +3001,10 @@
         <v>394802</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2761,10 +3016,10 @@
         <v>814265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2835,13 +3090,13 @@
         <v>3005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2850,13 +3105,13 @@
         <v>2934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2865,13 +3120,13 @@
         <v>5939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +3141,13 @@
         <v>587491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>576</v>
@@ -2901,13 +3156,13 @@
         <v>560610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>1140</v>
@@ -2916,10 +3171,10 @@
         <v>1148101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>33</v>
@@ -2996,7 +3251,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3005,13 +3260,13 @@
         <v>7961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3020,13 +3275,13 @@
         <v>7961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3299,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3056,13 +3311,13 @@
         <v>653425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7">
         <v>1295</v>
@@ -3071,13 +3326,13 @@
         <v>1322522</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3400,13 @@
         <v>4112</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3160,13 +3415,13 @@
         <v>37133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3175,13 +3430,13 @@
         <v>41246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,10 +3451,10 @@
         <v>641936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>33</v>
@@ -3211,13 +3466,13 @@
         <v>611944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>1146</v>
@@ -3226,13 +3481,13 @@
         <v>1253879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3555,13 @@
         <v>4279</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -3315,13 +3570,13 @@
         <v>43732</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3330,13 +3585,13 @@
         <v>48011</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3606,13 @@
         <v>473639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>393</v>
@@ -3366,13 +3621,13 @@
         <v>453117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>813</v>
@@ -3381,13 +3636,13 @@
         <v>926756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,43 +3710,43 @@
         <v>2651</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>32355</v>
+        <v>20930</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>35006</v>
+        <v>23581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,49 +3755,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>625</v>
+        <v>323</v>
       </c>
       <c r="D20" s="7">
-        <v>588677</v>
+        <v>331679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>626</v>
+        <v>334</v>
       </c>
       <c r="I20" s="7">
-        <v>745576</v>
+        <v>356832</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M20" s="7">
-        <v>1251</v>
+        <v>657</v>
       </c>
       <c r="N20" s="7">
-        <v>1334253</v>
+        <v>688511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,10 +3806,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3566,10 +3821,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3581,10 +3836,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3598,55 +3853,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>14048</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="H22" s="7">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>125068</v>
+        <v>11425</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="M22" s="7">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="N22" s="7">
-        <v>139116</v>
+        <v>11425</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,49 +3910,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3218</v>
+        <v>302</v>
       </c>
       <c r="D23" s="7">
-        <v>3380302</v>
+        <v>256998</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>3223</v>
+        <v>292</v>
       </c>
       <c r="I23" s="7">
-        <v>3419474</v>
+        <v>388744</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M23" s="7">
-        <v>6441</v>
+        <v>594</v>
       </c>
       <c r="N23" s="7">
-        <v>6799776</v>
+        <v>645742</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,63 +3961,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>13</v>
+      </c>
+      <c r="D25" s="7">
+        <v>14048</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H25" s="7">
+        <v>115</v>
+      </c>
+      <c r="I25" s="7">
+        <v>125068</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" s="7">
+        <v>128</v>
+      </c>
+      <c r="N25" s="7">
+        <v>139116</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3218</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3380302</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3223</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3419474</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6441</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6799776</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>115</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3775,8 +4186,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3183F53-86BE-4149-A221-218B15408862}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E5AB3-19A9-4994-851C-F7FD2CB34A3C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3792,7 +4203,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3905,37 +4316,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2243</v>
+        <v>1621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2243</v>
+        <v>1621</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +4358,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3962,13 +4373,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>352714</v>
+        <v>311579</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3977,13 +4388,13 @@
         <v>378</v>
       </c>
       <c r="N5" s="7">
-        <v>730393</v>
+        <v>711566</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3998,7 +4409,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4013,7 +4424,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4028,7 +4439,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4051,46 +4462,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1381</v>
+        <v>1268</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1179</v>
+        <v>959</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2561</v>
+        <v>2228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4513,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>427015</v>
+        <v>422279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4117,13 +4528,13 @@
         <v>457</v>
       </c>
       <c r="I8" s="7">
-        <v>496749</v>
+        <v>509963</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4132,16 +4543,16 @@
         <v>758</v>
       </c>
       <c r="N8" s="7">
-        <v>923763</v>
+        <v>932241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,7 +4564,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4168,7 +4579,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497928</v>
+        <v>510922</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4183,7 +4594,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>926324</v>
+        <v>934469</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4215,37 +4626,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>11540</v>
+        <v>10717</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>11540</v>
+        <v>10717</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4668,13 @@
         <v>545</v>
       </c>
       <c r="D11" s="7">
-        <v>555936</v>
+        <v>535017</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4272,31 +4683,31 @@
         <v>826</v>
       </c>
       <c r="I11" s="7">
-        <v>570233</v>
+        <v>530227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>113</v>
       </c>
       <c r="M11" s="7">
         <v>1371</v>
       </c>
       <c r="N11" s="7">
-        <v>1126170</v>
+        <v>1065244</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,7 +4719,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>555936</v>
+        <v>535017</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4323,7 +4734,7 @@
         <v>843</v>
       </c>
       <c r="I12" s="7">
-        <v>581773</v>
+        <v>540944</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4338,7 +4749,7 @@
         <v>1388</v>
       </c>
       <c r="N12" s="7">
-        <v>1137710</v>
+        <v>1075961</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4361,46 +4772,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>5263</v>
+        <v>5241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
       </c>
       <c r="I13" s="7">
-        <v>29209</v>
+        <v>26873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>34472</v>
+        <v>32113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,46 +4823,46 @@
         <v>660</v>
       </c>
       <c r="D14" s="7">
-        <v>717624</v>
+        <v>881489</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>1085</v>
       </c>
       <c r="I14" s="7">
-        <v>714257</v>
+        <v>682434</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>1745</v>
       </c>
       <c r="N14" s="7">
-        <v>1431881</v>
+        <v>1563924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,7 +4874,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722887</v>
+        <v>886730</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4478,7 +4889,7 @@
         <v>1133</v>
       </c>
       <c r="I15" s="7">
-        <v>743466</v>
+        <v>709307</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4493,7 +4904,7 @@
         <v>1797</v>
       </c>
       <c r="N15" s="7">
-        <v>1466353</v>
+        <v>1596037</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4516,46 +4927,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>4569</v>
+        <v>4315</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
       </c>
       <c r="I16" s="7">
-        <v>50122</v>
+        <v>45634</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
       </c>
       <c r="N16" s="7">
-        <v>54691</v>
+        <v>49949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,46 +4978,46 @@
         <v>656</v>
       </c>
       <c r="D17" s="7">
-        <v>593944</v>
+        <v>555401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>911</v>
       </c>
       <c r="I17" s="7">
-        <v>539668</v>
+        <v>495763</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>1567</v>
       </c>
       <c r="N17" s="7">
-        <v>1133612</v>
+        <v>1051163</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,7 +5029,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598513</v>
+        <v>559716</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4633,7 +5044,7 @@
         <v>993</v>
       </c>
       <c r="I18" s="7">
-        <v>589790</v>
+        <v>541397</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4648,7 +5059,7 @@
         <v>1654</v>
       </c>
       <c r="N18" s="7">
-        <v>1188303</v>
+        <v>1101112</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4668,49 +5079,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>3617</v>
+        <v>2967</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="I19" s="7">
-        <v>60288</v>
+        <v>35702</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="N19" s="7">
-        <v>63905</v>
+        <v>38670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,49 +5130,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>1018</v>
+        <v>562</v>
       </c>
       <c r="D20" s="7">
-        <v>690867</v>
+        <v>363182</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
-        <v>1594</v>
+        <v>752</v>
       </c>
       <c r="I20" s="7">
-        <v>961928</v>
+        <v>569738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="M20" s="7">
-        <v>2612</v>
+        <v>1314</v>
       </c>
       <c r="N20" s="7">
-        <v>1652795</v>
+        <v>932919</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,10 +5181,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1024</v>
+        <v>567</v>
       </c>
       <c r="D21" s="7">
-        <v>694484</v>
+        <v>366149</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4785,10 +5196,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>1700</v>
+        <v>822</v>
       </c>
       <c r="I21" s="7">
-        <v>1022216</v>
+        <v>605440</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4800,10 +5211,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>2724</v>
+        <v>1389</v>
       </c>
       <c r="N21" s="7">
-        <v>1716700</v>
+        <v>971589</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4817,55 +5228,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>14831</v>
+        <v>513</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="H22" s="7">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>154582</v>
+        <v>18104</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="N22" s="7">
-        <v>169413</v>
+        <v>18618</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,49 +5285,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3352</v>
+        <v>456</v>
       </c>
       <c r="D23" s="7">
-        <v>3363065</v>
+        <v>281281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
-        <v>5079</v>
+        <v>842</v>
       </c>
       <c r="I23" s="7">
-        <v>3635548</v>
+        <v>406662</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="M23" s="7">
-        <v>8431</v>
+        <v>1298</v>
       </c>
       <c r="N23" s="7">
-        <v>6998612</v>
+        <v>687942</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,63 +5336,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281794</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424766</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706560</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7">
+        <v>14305</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="7">
+        <v>256</v>
+      </c>
+      <c r="I25" s="7">
+        <v>139611</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M25" s="7">
+        <v>272</v>
+      </c>
+      <c r="N25" s="7">
+        <v>153915</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3352</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3438636</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5079</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3506364</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8431</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6945001</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3368</v>
       </c>
-      <c r="D24" s="7">
-        <v>3377896</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3452941</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>5335</v>
       </c>
-      <c r="I24" s="7">
-        <v>3790130</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3645975</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>8703</v>
       </c>
-      <c r="N24" s="7">
-        <v>7168025</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>115</v>
+      <c r="N27" s="7">
+        <v>7098916</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
